--- a/Assets/InProject/Excels/ObjectInStepConfig.xlsx
+++ b/Assets/InProject/Excels/ObjectInStepConfig.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>string</t>
   </si>
@@ -623,7 +623,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -680,10 +680,7 @@
       <c r="A4" s="3">
         <v>1001</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3"/>
@@ -693,10 +690,12 @@
       <c r="A5" s="3">
         <v>1002</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
@@ -704,12 +703,10 @@
       <c r="A6" s="3">
         <v>1003</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
@@ -718,10 +715,10 @@
         <v>1004</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -733,7 +730,9 @@
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
@@ -742,11 +741,9 @@
         <v>1006</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
@@ -755,10 +752,10 @@
         <v>1007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -768,22 +765,30 @@
         <v>1008</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>1009</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>1010</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/Assets/InProject/Excels/ObjectInStepConfig.xlsx
+++ b/Assets/InProject/Excels/ObjectInStepConfig.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>string</t>
   </si>
@@ -104,11 +104,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>刮土刀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土样</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土样2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>削土刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>刮土刀</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -253,7 +261,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,6 +321,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -623,7 +634,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -731,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -752,7 +763,7 @@
         <v>1007</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
@@ -765,7 +776,7 @@
         <v>1008</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
@@ -790,27 +801,55 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="17:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="20">
+        <v>2001</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20">
+        <v>2002</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="17:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="34" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/Assets/InProject/Excels/ObjectInStepConfig.xlsx
+++ b/Assets/InProject/Excels/ObjectInStepConfig.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>string</t>
   </si>
@@ -117,6 +117,36 @@
   </si>
   <si>
     <t>削土刀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>烘箱</t>
+  </si>
+  <si>
+    <t>干燥器</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>称量盒1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>称量盒2</t>
+  </si>
+  <si>
+    <t>称量盒2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>称量盒1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>称量盒1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -633,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -824,28 +854,134 @@
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="20">
+        <v>3001</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="20"/>
     </row>
     <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-    </row>
-    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="A17" s="20">
+        <v>3002</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20">
+        <v>3003</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20">
+        <v>3004</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="20">
+        <v>3005</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="21" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="20">
+        <v>3006</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>21</v>
+      </c>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="20">
+        <v>3007</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="20">
+        <v>3008</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="20">
+        <v>3009</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="20">
+        <v>3010</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="20">
+        <v>4001</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="20">
+        <v>4002</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20"/>
+    </row>
     <row r="29" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="30" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="31" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>

--- a/Assets/InProject/Excels/ObjectInStepConfig.xlsx
+++ b/Assets/InProject/Excels/ObjectInStepConfig.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>string</t>
   </si>
@@ -147,6 +147,46 @@
   </si>
   <si>
     <t>称量盒1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>土盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>细筛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土皿1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土皿2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土皿3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>量筒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调土刀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土杯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土杯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合测定仪</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -663,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -978,30 +1018,131 @@
       <c r="B27" s="20" t="s">
         <v>18</v>
       </c>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
-    </row>
-    <row r="29" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="2:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="20">
+        <v>5001</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20">
+        <v>5002</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="20">
+        <v>5003</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="20">
+        <v>5004</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20">
+        <v>5005</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="20">
+        <v>5006</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="20">
+        <v>5007</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="20">
+        <v>5008</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="20">
+        <v>5009</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="20">
+        <v>5010</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="20"/>
+    </row>
+    <row r="38" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B48" s="12"/>
       <c r="D48" s="12"/>
     </row>

--- a/Assets/InProject/Excels/ObjectInStepConfig.xlsx
+++ b/Assets/InProject/Excels/ObjectInStepConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unitypro\SoilExperiment\SoilExperiment\Assets\InProject\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pro\github\Soil\SoilExperiment\Assets\InProject\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828EB021-0C98-45D4-B6B7-3B4B45EF4999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>string</t>
   </si>
@@ -146,54 +147,62 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>土盘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>细筛</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土皿1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土皿2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土皿3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>量筒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>调土刀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土杯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛土杯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合测定仪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛玻璃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>称量盒1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>土盘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>细筛</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛土皿1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛土皿2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛土皿3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>量筒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>调土刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛土杯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛土杯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>联合测定仪</t>
+    <t>土条</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -331,17 +340,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,22 +359,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -383,23 +389,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 5" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,7 +418,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -490,6 +493,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -525,6 +545,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -700,26 +737,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="12" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="14" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="13" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -731,18 +768,18 @@
       <c r="D1" s="7"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -755,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="18"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
@@ -872,41 +909,41 @@
       </c>
     </row>
     <row r="14" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20">
+      <c r="A14" s="3">
         <v>2001</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20">
+      <c r="A15" s="3">
         <v>2002</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20">
+      <c r="A16" s="3">
         <v>3001</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20">
+      <c r="A17" s="3">
         <v>3002</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -914,10 +951,10 @@
       </c>
     </row>
     <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20">
+      <c r="A18" s="3">
         <v>3003</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -925,240 +962,274 @@
       </c>
     </row>
     <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20">
+      <c r="A19" s="3">
         <v>3004</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20">
+      <c r="A20" s="3">
         <v>3005</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20">
+    <row r="21" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
         <v>3006</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20">
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
         <v>3007</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20">
+    <row r="23" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
         <v>3008</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="20">
+    <row r="24" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
         <v>3009</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="20">
+    <row r="25" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
         <v>3010</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>4001</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>4002</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>5001</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="20">
-        <v>4001</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="20">
-        <v>4002</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20">
-        <v>5001</v>
-      </c>
-      <c r="B28" s="20" t="s">
+      <c r="C28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="20" t="s">
+    </row>
+    <row r="29" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>5002</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20">
-        <v>5002</v>
-      </c>
-      <c r="B29" s="20" t="s">
+    <row r="30" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>5003</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>5004</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
+        <v>5005</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="20">
-        <v>5003</v>
-      </c>
-      <c r="B30" s="20" t="s">
+    </row>
+    <row r="33" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3">
+        <v>5006</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="20">
-        <v>5004</v>
-      </c>
-      <c r="B31" s="20" t="s">
+    </row>
+    <row r="34" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3">
+        <v>5007</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="20">
-        <v>5005</v>
-      </c>
-      <c r="B32" s="20" t="s">
+    </row>
+    <row r="35" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3">
+        <v>5008</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="20">
-        <v>5006</v>
-      </c>
-      <c r="B33" s="20" t="s">
+      <c r="C35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="20">
-        <v>5007</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="20">
-        <v>5008</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="20" t="s">
+    </row>
+    <row r="36" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3">
+        <v>5009</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="20">
-        <v>5009</v>
-      </c>
-      <c r="B36" s="20" t="s">
+      <c r="C36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="20" t="s">
+    </row>
+    <row r="37" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3">
+        <v>5010</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3">
+        <v>6001</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="20">
-        <v>5010</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="20"/>
-    </row>
-    <row r="38" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
-    </row>
-    <row r="39" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
-    </row>
-    <row r="40" spans="1:4" s="16" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3">
+        <v>6002</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3">
+        <v>6003</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3">
+        <v>6004</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="B48" s="11"/>
+      <c r="D48" s="11"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="B49" s="11"/>
+      <c r="D49" s="11"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="B50" s="11"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D51" s="15"/>
+      <c r="D51" s="14"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D52" s="15"/>
+      <c r="D52" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1169,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1183,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
